--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_08_beg.xlsx
@@ -484,7 +484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceylon"]   Can you explain what's going on to me now? That phone call was way too obscure. What did she mean by "there's a good chance to stop the eruption?"
+    <t xml:space="preserve">[name="Ceylon"]   Can you explain what's going on to me now? That phone call was way too obscure. What did she mean by 'there's a good chance to stop the eruption?'
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Provence"]   ..."If we do not protect the gifts from Nature, then Nature will instead grant us punishment."
+    <t xml:space="preserve">[name="Provence"]   ...'If we do not protect the gifts from Nature, then Nature will instead grant us punishment.'
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Provence"]   Hold on, hold on! How are we supposed to "pacify" this mini-volcano?!
+    <t xml:space="preserve">[name="Provence"]   Hold on, hold on! How are we supposed to 'pacify' this mini-volcano?!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_08_beg.xlsx
@@ -568,7 +568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   Groaaaaaarrr…!!!
+    <t xml:space="preserve">[name="???"]   Groaaaaaarrr...!!!
 </t>
   </si>
   <si>
@@ -640,7 +640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Giant Originium Slug"]   Groaaaaaaaar…!!!
+    <t xml:space="preserve">[name="Giant Originium Slug"]   Groaaaaaaaar...!!!
 </t>
   </si>
   <si>
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Skyfire"]   Let’s just ask it to go home really nicely then!
+    <t xml:space="preserve">[name="Skyfire"]   Let's just ask it to go home really nicely then!
 </t>
   </si>
   <si>
